--- a/trabalho2Apostila/tabelaTempoProcessamentoAlgoritmos.xlsx
+++ b/trabalho2Apostila/tabelaTempoProcessamentoAlgoritmos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unir\2-P\Programacao-II\atividades\trabalho2Apostila\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unir\2-P\Programacao-II\codigos\progII\trabalho2Apostila\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381402D-773F-4419-8DFF-53DCA019177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B3E89-496F-4E1C-A813-3618646EB995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D85E8005-4016-4ED2-BE7B-E83F07F13E82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Métodos</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,15 +727,31 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">

--- a/trabalho2Apostila/tabelaTempoProcessamentoAlgoritmos.xlsx
+++ b/trabalho2Apostila/tabelaTempoProcessamentoAlgoritmos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unir\2-P\Programacao-II\codigos\progII\trabalho2Apostila\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B3E89-496F-4E1C-A813-3618646EB995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DBE250-EDB6-437A-9202-55B3DD649E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D85E8005-4016-4ED2-BE7B-E83F07F13E82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Métodos</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Inserção Binária</t>
-  </si>
-  <si>
-    <t>MergeSort</t>
   </si>
   <si>
     <t>heapSort</t>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC5D63C-E216-43C9-82F2-093494EE845F}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,31 +597,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -632,31 +629,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,31 +661,31 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,31 +693,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -728,29 +725,29 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,64 +755,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
